--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H2">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N2">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O2">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P2">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q2">
-        <v>35.23054550366051</v>
+        <v>40.45380681070511</v>
       </c>
       <c r="R2">
-        <v>35.23054550366051</v>
+        <v>364.084261296346</v>
       </c>
       <c r="S2">
-        <v>0.169600072376409</v>
+        <v>0.1671136200146222</v>
       </c>
       <c r="T2">
-        <v>0.169600072376409</v>
+        <v>0.1671136200146222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H3">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N3">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O3">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P3">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q3">
-        <v>2.679335034528318</v>
+        <v>2.978873144521778</v>
       </c>
       <c r="R3">
-        <v>2.679335034528318</v>
+        <v>26.809858300696</v>
       </c>
       <c r="S3">
-        <v>0.01289833606832561</v>
+        <v>0.01230564720583087</v>
       </c>
       <c r="T3">
-        <v>0.01289833606832561</v>
+        <v>0.01230564720583086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H4">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N4">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O4">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P4">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q4">
-        <v>0.3480641225929524</v>
+        <v>0.679477646986</v>
       </c>
       <c r="R4">
-        <v>0.3480641225929524</v>
+        <v>6.115298822873999</v>
       </c>
       <c r="S4">
-        <v>0.001675582922133935</v>
+        <v>0.002806904424055335</v>
       </c>
       <c r="T4">
-        <v>0.001675582922133935</v>
+        <v>0.002806904424055334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H5">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N5">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O5">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P5">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q5">
-        <v>0.3831247159070907</v>
+        <v>0.5503194199813334</v>
       </c>
       <c r="R5">
-        <v>0.3831247159070907</v>
+        <v>4.952874779831999</v>
       </c>
       <c r="S5">
-        <v>0.001844364843578208</v>
+        <v>0.002273355159571566</v>
       </c>
       <c r="T5">
-        <v>0.001844364843578208</v>
+        <v>0.002273355159571566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H6">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N6">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O6">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P6">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q6">
-        <v>5.813765959602847</v>
+        <v>8.074206958424556</v>
       </c>
       <c r="R6">
-        <v>5.813765959602847</v>
+        <v>72.667862625821</v>
       </c>
       <c r="S6">
-        <v>0.02798750667728655</v>
+        <v>0.03335433819327278</v>
       </c>
       <c r="T6">
-        <v>0.02798750667728655</v>
+        <v>0.03335433819327276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N7">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O7">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P7">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q7">
-        <v>60.91046431736068</v>
+        <v>67.532320525272</v>
       </c>
       <c r="R7">
-        <v>60.91046431736068</v>
+        <v>607.7908847274481</v>
       </c>
       <c r="S7">
-        <v>0.2932233665139163</v>
+        <v>0.2789742533693894</v>
       </c>
       <c r="T7">
-        <v>0.2932233665139163</v>
+        <v>0.2789742533693893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N8">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O8">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P8">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q8">
-        <v>4.632330799360878</v>
+        <v>4.972837709472</v>
       </c>
       <c r="R8">
-        <v>4.632330799360878</v>
+        <v>44.755539385248</v>
       </c>
       <c r="S8">
-        <v>0.02230007022631665</v>
+        <v>0.02054266277741694</v>
       </c>
       <c r="T8">
-        <v>0.02230007022631665</v>
+        <v>0.02054266277741694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N9">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O9">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P9">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q9">
-        <v>0.601771758463084</v>
+        <v>1.134298743768</v>
       </c>
       <c r="R9">
-        <v>0.601771758463084</v>
+        <v>10.208688693912</v>
       </c>
       <c r="S9">
-        <v>0.002896933111036096</v>
+        <v>0.004685758503176202</v>
       </c>
       <c r="T9">
-        <v>0.002896933111036096</v>
+        <v>0.004685758503176201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N10">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O10">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P10">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q10">
-        <v>0.6623883906348574</v>
+        <v>0.918686037024</v>
       </c>
       <c r="R10">
-        <v>0.6623883906348574</v>
+        <v>8.268174333216001</v>
       </c>
       <c r="S10">
-        <v>0.003188741967713571</v>
+        <v>0.003795068039513682</v>
       </c>
       <c r="T10">
-        <v>0.003188741967713571</v>
+        <v>0.003795068039513681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N11">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O11">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P11">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q11">
-        <v>10.05148171762148</v>
+        <v>13.478828700972</v>
       </c>
       <c r="R11">
-        <v>10.05148171762148</v>
+        <v>121.309458308748</v>
       </c>
       <c r="S11">
-        <v>0.04838789755956608</v>
+        <v>0.05568068954094947</v>
       </c>
       <c r="T11">
-        <v>0.04838789755956608</v>
+        <v>0.05568068954094945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H12">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N12">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O12">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P12">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q12">
-        <v>68.48319733045443</v>
+        <v>77.70627160859378</v>
       </c>
       <c r="R12">
-        <v>68.48319733045443</v>
+        <v>699.3564444773441</v>
       </c>
       <c r="S12">
-        <v>0.3296785518863504</v>
+        <v>0.321002579735344</v>
       </c>
       <c r="T12">
-        <v>0.3296785518863504</v>
+        <v>0.3210025797353439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H13">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N13">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O13">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P13">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q13">
-        <v>5.208248332826351</v>
+        <v>5.722010952860444</v>
       </c>
       <c r="R13">
-        <v>5.208248332826351</v>
+        <v>51.498098575744</v>
       </c>
       <c r="S13">
-        <v>0.02507254093212614</v>
+        <v>0.0236374778910247</v>
       </c>
       <c r="T13">
-        <v>0.02507254093212614</v>
+        <v>0.0236374778910247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H14">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N14">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O14">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P14">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q14">
-        <v>0.6765874229426276</v>
+        <v>1.305184326304</v>
       </c>
       <c r="R14">
-        <v>0.6765874229426276</v>
+        <v>11.746658936736</v>
       </c>
       <c r="S14">
-        <v>0.003257096200458068</v>
+        <v>0.005391682384197493</v>
       </c>
       <c r="T14">
-        <v>0.003257096200458068</v>
+        <v>0.005391682384197492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H15">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N15">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O15">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P15">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q15">
-        <v>0.7447402572552689</v>
+        <v>1.057088904405333</v>
       </c>
       <c r="R15">
-        <v>0.7447402572552689</v>
+        <v>9.513800139648</v>
       </c>
       <c r="S15">
-        <v>0.003585184382654407</v>
+        <v>0.00436680667209097</v>
       </c>
       <c r="T15">
-        <v>0.003585184382654407</v>
+        <v>0.004366806672090969</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H16">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N16">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O16">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P16">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q16">
-        <v>11.30113870655771</v>
+        <v>15.50945555930489</v>
       </c>
       <c r="R16">
-        <v>11.30113870655771</v>
+        <v>139.585100033744</v>
       </c>
       <c r="S16">
-        <v>0.05440375433212864</v>
+        <v>0.06406915608954458</v>
       </c>
       <c r="T16">
-        <v>0.05440375433212864</v>
+        <v>0.06406915608954455</v>
       </c>
     </row>
   </sheetData>
